--- a/dthu.xlsx
+++ b/dthu.xlsx
@@ -207,7 +207,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="D1:J2024"/>
+  <dimension ref="D1:J2360"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -46768,6 +46768,7734 @@
         <v>2922485</v>
       </c>
     </row>
+    <row r="2025">
+      <c r="D2025" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2025" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2025" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2025" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2025" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2025" s="0">
+        <v>6635941</v>
+      </c>
+      <c r="J2025" s="0">
+        <v>7484669.8</v>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="D2026" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2026" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2026" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2026" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2026" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2026" s="0">
+        <v>3806769</v>
+      </c>
+      <c r="J2026" s="0">
+        <v>3806769</v>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="D2027" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2027" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2027" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2027" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2027" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2027" s="0">
+        <v>14835605</v>
+      </c>
+      <c r="J2027" s="0">
+        <v>17802725.999999996</v>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="D2028" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2028" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2028" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2028" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2028" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2028" s="0">
+        <v>3412677</v>
+      </c>
+      <c r="J2028" s="0">
+        <v>3831560.8</v>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="D2029" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2029" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2029" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2029" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2029" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2029" s="0">
+        <v>11200404</v>
+      </c>
+      <c r="J2029" s="0">
+        <v>13440484.8</v>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="D2030" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2030" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2030" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2030" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2030" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2030" s="0">
+        <v>6619862</v>
+      </c>
+      <c r="J2030" s="0">
+        <v>6619862</v>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="D2031" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2031" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2031" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2031" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2031" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2031" s="0">
+        <v>5419570</v>
+      </c>
+      <c r="J2031" s="0">
+        <v>6503484.000000001</v>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="D2032" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2032" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2032" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2032" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2032" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2032" s="0">
+        <v>10539731</v>
+      </c>
+      <c r="J2032" s="0">
+        <v>11928935.2</v>
+      </c>
+    </row>
+    <row r="2033">
+      <c r="D2033" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2033" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2033" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2033" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2033" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2033" s="0">
+        <v>3561539</v>
+      </c>
+      <c r="J2033" s="0">
+        <v>4273846.800000001</v>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="D2034" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2034" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2034" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2034" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2034" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2034" s="0">
+        <v>2111428</v>
+      </c>
+      <c r="J2034" s="0">
+        <v>2111428</v>
+      </c>
+    </row>
+    <row r="2035">
+      <c r="D2035" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2035" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2035" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2035" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2035" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2035" s="0">
+        <v>2044117</v>
+      </c>
+      <c r="J2035" s="0">
+        <v>2452940.4000000004</v>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="D2036" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2036" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2036" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2036" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2036" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2036" s="0">
+        <v>4632379</v>
+      </c>
+      <c r="J2036" s="0">
+        <v>4632379</v>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="D2037" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2037" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2037" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2037" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2037" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2037" s="0">
+        <v>187037</v>
+      </c>
+      <c r="J2037" s="0">
+        <v>187037</v>
+      </c>
+    </row>
+    <row r="2038">
+      <c r="D2038" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2038" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2038" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2038" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2038" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2038" s="0">
+        <v>16586594</v>
+      </c>
+      <c r="J2038" s="0">
+        <v>19903912.8</v>
+      </c>
+    </row>
+    <row r="2039">
+      <c r="D2039" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2039" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2039" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2039" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2039" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2039" s="0">
+        <v>17218488</v>
+      </c>
+      <c r="J2039" s="0">
+        <v>20662185.600000005</v>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="D2040" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2040" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2040" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2040" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2040" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2040" s="0">
+        <v>6075093</v>
+      </c>
+      <c r="J2040" s="0">
+        <v>6075093</v>
+      </c>
+    </row>
+    <row r="2041">
+      <c r="D2041" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2041" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2041" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2041" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2041" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2041" s="0">
+        <v>6409900</v>
+      </c>
+      <c r="J2041" s="0">
+        <v>6409900</v>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="D2042" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2042" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2042" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2042" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2042" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2042" s="0">
+        <v>4880310</v>
+      </c>
+      <c r="J2042" s="0">
+        <v>5856371.999999998</v>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="D2043" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2043" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2043" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2043" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2043" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2043" s="0">
+        <v>49537</v>
+      </c>
+      <c r="J2043" s="0">
+        <v>49537</v>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="D2044" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2044" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2044" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2044" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2044" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2044" s="0">
+        <v>555924</v>
+      </c>
+      <c r="J2044" s="0">
+        <v>555924</v>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="D2045" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2045" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2045" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2045" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2045" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2045" s="0">
+        <v>1446201</v>
+      </c>
+      <c r="J2045" s="0">
+        <v>1446201</v>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="D2046" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2046" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2046" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2046" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2046" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2046" s="0">
+        <v>3422189</v>
+      </c>
+      <c r="J2046" s="0">
+        <v>3422189</v>
+      </c>
+    </row>
+    <row r="2047">
+      <c r="D2047" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2047" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2047" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2047" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2047" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2047" s="0">
+        <v>5921747</v>
+      </c>
+      <c r="J2047" s="0">
+        <v>7106096.4</v>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="D2048" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2048" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2048" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2048" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2048" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2048" s="0">
+        <v>1774685</v>
+      </c>
+      <c r="J2048" s="0">
+        <v>2129622</v>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="D2049" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2049" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2049" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2049" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2049" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2049" s="0">
+        <v>3871922</v>
+      </c>
+      <c r="J2049" s="0">
+        <v>3871922</v>
+      </c>
+    </row>
+    <row r="2050">
+      <c r="D2050" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2050" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2050" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2050" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2050" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2050" s="0">
+        <v>8576765</v>
+      </c>
+      <c r="J2050" s="0">
+        <v>10292118</v>
+      </c>
+    </row>
+    <row r="2051">
+      <c r="D2051" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2051" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2051" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2051" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2051" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2051" s="0">
+        <v>9989540</v>
+      </c>
+      <c r="J2051" s="0">
+        <v>9989540</v>
+      </c>
+    </row>
+    <row r="2052">
+      <c r="D2052" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2052" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2052" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2052" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2052" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2052" s="0">
+        <v>7072872</v>
+      </c>
+      <c r="J2052" s="0">
+        <v>7072872</v>
+      </c>
+    </row>
+    <row r="2053">
+      <c r="D2053" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2053" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2053" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2053" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2053" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2053" s="0">
+        <v>5413658</v>
+      </c>
+      <c r="J2053" s="0">
+        <v>5413658</v>
+      </c>
+    </row>
+    <row r="2054">
+      <c r="D2054" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2054" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2054" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2054" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2054" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2054" s="0">
+        <v>3050833</v>
+      </c>
+      <c r="J2054" s="0">
+        <v>3660999.6</v>
+      </c>
+    </row>
+    <row r="2055">
+      <c r="D2055" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2055" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2055" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2055" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2055" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2055" s="0">
+        <v>3248732</v>
+      </c>
+      <c r="J2055" s="0">
+        <v>3248732</v>
+      </c>
+    </row>
+    <row r="2056">
+      <c r="D2056" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2056" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2056" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2056" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2056" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2056" s="0">
+        <v>659073</v>
+      </c>
+      <c r="J2056" s="0">
+        <v>659073</v>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="D2057" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2057" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2057" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2057" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2057" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2057" s="0">
+        <v>7725629</v>
+      </c>
+      <c r="J2057" s="0">
+        <v>9270754.8</v>
+      </c>
+    </row>
+    <row r="2058">
+      <c r="D2058" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2058" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2058" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2058" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2058" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2058" s="0">
+        <v>5957591</v>
+      </c>
+      <c r="J2058" s="0">
+        <v>5957591</v>
+      </c>
+    </row>
+    <row r="2059">
+      <c r="D2059" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2059" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2059" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2059" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2059" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2059" s="0">
+        <v>4997186</v>
+      </c>
+      <c r="J2059" s="0">
+        <v>4997186</v>
+      </c>
+    </row>
+    <row r="2060">
+      <c r="D2060" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2060" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2060" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2060" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2060" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2060" s="0">
+        <v>3683600</v>
+      </c>
+      <c r="J2060" s="0">
+        <v>3683600</v>
+      </c>
+    </row>
+    <row r="2061">
+      <c r="D2061" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2061" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2061" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2061" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2061" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2061" s="0">
+        <v>1858056</v>
+      </c>
+      <c r="J2061" s="0">
+        <v>1858056</v>
+      </c>
+    </row>
+    <row r="2062">
+      <c r="D2062" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2062" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2062" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2062" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2062" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2062" s="0">
+        <v>1408475</v>
+      </c>
+      <c r="J2062" s="0">
+        <v>1408475</v>
+      </c>
+    </row>
+    <row r="2063">
+      <c r="D2063" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2063" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2063" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2063" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2063" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2063" s="0">
+        <v>1012961</v>
+      </c>
+      <c r="J2063" s="0">
+        <v>1012961</v>
+      </c>
+    </row>
+    <row r="2064">
+      <c r="D2064" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2064" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2064" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2064" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2064" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2064" s="0">
+        <v>1545647</v>
+      </c>
+      <c r="J2064" s="0">
+        <v>1545647</v>
+      </c>
+    </row>
+    <row r="2065">
+      <c r="D2065" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2065" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2065" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2065" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2065" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2065" s="0">
+        <v>2908571</v>
+      </c>
+      <c r="J2065" s="0">
+        <v>2908571</v>
+      </c>
+    </row>
+    <row r="2066">
+      <c r="D2066" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2066" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2066" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2066" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2066" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2066" s="0">
+        <v>4861581</v>
+      </c>
+      <c r="J2066" s="0">
+        <v>5833897.199999997</v>
+      </c>
+    </row>
+    <row r="2067">
+      <c r="D2067" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2067" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2067" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2067" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2067" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2067" s="0">
+        <v>5096478</v>
+      </c>
+      <c r="J2067" s="0">
+        <v>5096478</v>
+      </c>
+    </row>
+    <row r="2068">
+      <c r="D2068" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2068" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2068" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2068" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2068" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2068" s="0">
+        <v>22011520</v>
+      </c>
+      <c r="J2068" s="0">
+        <v>26413823.999999985</v>
+      </c>
+    </row>
+    <row r="2069">
+      <c r="D2069" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2069" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2069" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2069" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2069" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2069" s="0">
+        <v>2494183</v>
+      </c>
+      <c r="J2069" s="0">
+        <v>2494183</v>
+      </c>
+    </row>
+    <row r="2070">
+      <c r="D2070" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2070" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2070" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2070" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2070" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2070" s="0">
+        <v>2618152</v>
+      </c>
+      <c r="J2070" s="0">
+        <v>3141782.4000000004</v>
+      </c>
+    </row>
+    <row r="2071">
+      <c r="D2071" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2071" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2071" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2071" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2071" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2071" s="0">
+        <v>3247223</v>
+      </c>
+      <c r="J2071" s="0">
+        <v>3247223</v>
+      </c>
+    </row>
+    <row r="2072">
+      <c r="D2072" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2072" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2072" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2072" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2072" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2072" s="0">
+        <v>5842478</v>
+      </c>
+      <c r="J2072" s="0">
+        <v>7010973.6</v>
+      </c>
+    </row>
+    <row r="2073">
+      <c r="D2073" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2073" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2073" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2073" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2073" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2073" s="0">
+        <v>5842842</v>
+      </c>
+      <c r="J2073" s="0">
+        <v>5842842</v>
+      </c>
+    </row>
+    <row r="2074">
+      <c r="D2074" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2074" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2074" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2074" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2074" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2074" s="0">
+        <v>4744762</v>
+      </c>
+      <c r="J2074" s="0">
+        <v>5332750.600000001</v>
+      </c>
+    </row>
+    <row r="2075">
+      <c r="D2075" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2075" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2075" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2075" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2075" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2075" s="0">
+        <v>34259</v>
+      </c>
+      <c r="J2075" s="0">
+        <v>34259</v>
+      </c>
+    </row>
+    <row r="2076">
+      <c r="D2076" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2076" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2076" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2076" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2076" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2076" s="0">
+        <v>7883457</v>
+      </c>
+      <c r="J2076" s="0">
+        <v>9460148.4</v>
+      </c>
+    </row>
+    <row r="2077">
+      <c r="D2077" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2077" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2077" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2077" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2077" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2077" s="0">
+        <v>7010188</v>
+      </c>
+      <c r="J2077" s="0">
+        <v>7010188</v>
+      </c>
+    </row>
+    <row r="2078">
+      <c r="D2078" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2078" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2078" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2078" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2078" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2078" s="0">
+        <v>3483149</v>
+      </c>
+      <c r="J2078" s="0">
+        <v>3483149</v>
+      </c>
+    </row>
+    <row r="2079">
+      <c r="D2079" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2079" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2079" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2079" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2079" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2079" s="0">
+        <v>18518</v>
+      </c>
+      <c r="J2079" s="0">
+        <v>18518</v>
+      </c>
+    </row>
+    <row r="2080">
+      <c r="D2080" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2080" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2080" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2080" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2080" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2080" s="0">
+        <v>2757840</v>
+      </c>
+      <c r="J2080" s="0">
+        <v>2757840</v>
+      </c>
+    </row>
+    <row r="2081">
+      <c r="D2081" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2081" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2081" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2081" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2081" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2081" s="0">
+        <v>9549088</v>
+      </c>
+      <c r="J2081" s="0">
+        <v>11458905.600000001</v>
+      </c>
+    </row>
+    <row r="2082">
+      <c r="D2082" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2082" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2082" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2082" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2082" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2082" s="0">
+        <v>10254176</v>
+      </c>
+      <c r="J2082" s="0">
+        <v>10254176</v>
+      </c>
+    </row>
+    <row r="2083">
+      <c r="D2083" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2083" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2083" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2083" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2083" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2083" s="0">
+        <v>1304294</v>
+      </c>
+      <c r="J2083" s="0">
+        <v>1304294</v>
+      </c>
+    </row>
+    <row r="2084">
+      <c r="D2084" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2084" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2084" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2084" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2084" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2084" s="0">
+        <v>4659519</v>
+      </c>
+      <c r="J2084" s="0">
+        <v>4659519</v>
+      </c>
+    </row>
+    <row r="2085">
+      <c r="D2085" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2085" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2085" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2085" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2085" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2085" s="0">
+        <v>2720172</v>
+      </c>
+      <c r="J2085" s="0">
+        <v>2720172</v>
+      </c>
+    </row>
+    <row r="2086">
+      <c r="D2086" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2086" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2086" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2086" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2086" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2086" s="0">
+        <v>3897536</v>
+      </c>
+      <c r="J2086" s="0">
+        <v>3897536</v>
+      </c>
+    </row>
+    <row r="2087">
+      <c r="D2087" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2087" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2087" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2087" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2087" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2087" s="0">
+        <v>1638095</v>
+      </c>
+      <c r="J2087" s="0">
+        <v>1638095</v>
+      </c>
+    </row>
+    <row r="2088">
+      <c r="D2088" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2088" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2088" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2088" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2088" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2088" s="0">
+        <v>1701157</v>
+      </c>
+      <c r="J2088" s="0">
+        <v>1701157</v>
+      </c>
+    </row>
+    <row r="2089">
+      <c r="D2089" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2089" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2089" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2089" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2089" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2089" s="0">
+        <v>905045</v>
+      </c>
+      <c r="J2089" s="0">
+        <v>905045</v>
+      </c>
+    </row>
+    <row r="2090">
+      <c r="D2090" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2090" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2090" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2090" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2090" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2090" s="0">
+        <v>4783564</v>
+      </c>
+      <c r="J2090" s="0">
+        <v>4783564</v>
+      </c>
+    </row>
+    <row r="2091">
+      <c r="D2091" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2091" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2091" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2091" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2091" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2091" s="0">
+        <v>17496733</v>
+      </c>
+      <c r="J2091" s="0">
+        <v>20996079.600000005</v>
+      </c>
+    </row>
+    <row r="2092">
+      <c r="D2092" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2092" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2092" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2092" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2092" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2092" s="0">
+        <v>3198565</v>
+      </c>
+      <c r="J2092" s="0">
+        <v>3198565</v>
+      </c>
+    </row>
+    <row r="2093">
+      <c r="D2093" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2093" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2093" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2093" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2093" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2093" s="0">
+        <v>7429897</v>
+      </c>
+      <c r="J2093" s="0">
+        <v>8915876.400000002</v>
+      </c>
+    </row>
+    <row r="2094">
+      <c r="D2094" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2094" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2094" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2094" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2094" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2094" s="0">
+        <v>3130676</v>
+      </c>
+      <c r="J2094" s="0">
+        <v>3130676</v>
+      </c>
+    </row>
+    <row r="2095">
+      <c r="D2095" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2095" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2095" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2095" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2095" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2095" s="0">
+        <v>4306850</v>
+      </c>
+      <c r="J2095" s="0">
+        <v>4306850</v>
+      </c>
+    </row>
+    <row r="2096">
+      <c r="D2096" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2096" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2096" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2096" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2096" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2096" s="0">
+        <v>2104073</v>
+      </c>
+      <c r="J2096" s="0">
+        <v>2104073</v>
+      </c>
+    </row>
+    <row r="2097">
+      <c r="D2097" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2097" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2097" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2097" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2097" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2097" s="0">
+        <v>3778240</v>
+      </c>
+      <c r="J2097" s="0">
+        <v>3778240</v>
+      </c>
+    </row>
+    <row r="2098">
+      <c r="D2098" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2098" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2098" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2098" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2098" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2098" s="0">
+        <v>18758196</v>
+      </c>
+      <c r="J2098" s="0">
+        <v>22509835.2</v>
+      </c>
+    </row>
+    <row r="2099">
+      <c r="D2099" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2099" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2099" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2099" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2099" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2099" s="0">
+        <v>1188057</v>
+      </c>
+      <c r="J2099" s="0">
+        <v>1188057</v>
+      </c>
+    </row>
+    <row r="2100">
+      <c r="D2100" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2100" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2100" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2100" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2100" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2100" s="0">
+        <v>4916775</v>
+      </c>
+      <c r="J2100" s="0">
+        <v>4916775</v>
+      </c>
+    </row>
+    <row r="2101">
+      <c r="D2101" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2101" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2101" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2101" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2101" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2101" s="0">
+        <v>9251565</v>
+      </c>
+      <c r="J2101" s="0">
+        <v>9251565</v>
+      </c>
+    </row>
+    <row r="2102">
+      <c r="D2102" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2102" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2102" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2102" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2102" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2102" s="0">
+        <v>2890078</v>
+      </c>
+      <c r="J2102" s="0">
+        <v>2890078</v>
+      </c>
+    </row>
+    <row r="2103">
+      <c r="D2103" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2103" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2103" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2103" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2103" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2103" s="0">
+        <v>665626</v>
+      </c>
+      <c r="J2103" s="0">
+        <v>665626</v>
+      </c>
+    </row>
+    <row r="2104">
+      <c r="D2104" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2104" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2104" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2104" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2104" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2104" s="0">
+        <v>10937087</v>
+      </c>
+      <c r="J2104" s="0">
+        <v>13124504.399999993</v>
+      </c>
+    </row>
+    <row r="2105">
+      <c r="D2105" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2105" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2105" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2105" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2105" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2105" s="0">
+        <v>2324605</v>
+      </c>
+      <c r="J2105" s="0">
+        <v>2789526.0000000005</v>
+      </c>
+    </row>
+    <row r="2106">
+      <c r="D2106" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2106" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2106" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2106" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2106" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2106" s="0">
+        <v>12141585</v>
+      </c>
+      <c r="J2106" s="0">
+        <v>14569901.999999996</v>
+      </c>
+    </row>
+    <row r="2107">
+      <c r="D2107" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2107" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2107" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2107" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2107" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2107" s="0">
+        <v>19456721</v>
+      </c>
+      <c r="J2107" s="0">
+        <v>23348065.2</v>
+      </c>
+    </row>
+    <row r="2108">
+      <c r="D2108" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2108" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2108" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2108" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2108" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2108" s="0">
+        <v>6491525</v>
+      </c>
+      <c r="J2108" s="0">
+        <v>6491525</v>
+      </c>
+    </row>
+    <row r="2109">
+      <c r="D2109" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2109" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2109" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2109" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2109" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2109" s="0">
+        <v>7749627</v>
+      </c>
+      <c r="J2109" s="0">
+        <v>7749627</v>
+      </c>
+    </row>
+    <row r="2110">
+      <c r="D2110" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2110" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2110" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2110" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2110" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2110" s="0">
+        <v>2173427</v>
+      </c>
+      <c r="J2110" s="0">
+        <v>2173427</v>
+      </c>
+    </row>
+    <row r="2111">
+      <c r="D2111" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2111" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2111" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2111" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2111" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2111" s="0">
+        <v>229536</v>
+      </c>
+      <c r="J2111" s="0">
+        <v>229536</v>
+      </c>
+    </row>
+    <row r="2112">
+      <c r="D2112" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2112" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2112" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2112" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2112" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2112" s="0">
+        <v>2530947</v>
+      </c>
+      <c r="J2112" s="0">
+        <v>2530947</v>
+      </c>
+    </row>
+    <row r="2113">
+      <c r="D2113" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2113" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2113" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2113" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2113" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2113" s="0">
+        <v>2465279</v>
+      </c>
+      <c r="J2113" s="0">
+        <v>2465279</v>
+      </c>
+    </row>
+    <row r="2114">
+      <c r="D2114" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2114" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2114" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2114" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2114" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2114" s="0">
+        <v>2836390</v>
+      </c>
+      <c r="J2114" s="0">
+        <v>2836390</v>
+      </c>
+    </row>
+    <row r="2115">
+      <c r="D2115" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2115" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2115" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2115" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2115" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2115" s="0">
+        <v>5429593</v>
+      </c>
+      <c r="J2115" s="0">
+        <v>6515511.6</v>
+      </c>
+    </row>
+    <row r="2116">
+      <c r="D2116" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2116" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2116" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2116" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2116" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2116" s="0">
+        <v>3534631</v>
+      </c>
+      <c r="J2116" s="0">
+        <v>3534631</v>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="D2117" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2117" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2117" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2117" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2117" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2117" s="0">
+        <v>14908985</v>
+      </c>
+      <c r="J2117" s="0">
+        <v>17890781.999999996</v>
+      </c>
+    </row>
+    <row r="2118">
+      <c r="D2118" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2118" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2118" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2118" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2118" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2118" s="0">
+        <v>4362471</v>
+      </c>
+      <c r="J2118" s="0">
+        <v>4362471</v>
+      </c>
+    </row>
+    <row r="2119">
+      <c r="D2119" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2119" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2119" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2119" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2119" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2119" s="0">
+        <v>454257</v>
+      </c>
+      <c r="J2119" s="0">
+        <v>454257</v>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="D2120" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2120" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2120" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2120" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2120" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2120" s="0">
+        <v>1670438</v>
+      </c>
+      <c r="J2120" s="0">
+        <v>1670438</v>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="D2121" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2121" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2121" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2121" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2121" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2121" s="0">
+        <v>13241781</v>
+      </c>
+      <c r="J2121" s="0">
+        <v>15890137.200000001</v>
+      </c>
+    </row>
+    <row r="2122">
+      <c r="D2122" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2122" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2122" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2122" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2122" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2122" s="0">
+        <v>6830914</v>
+      </c>
+      <c r="J2122" s="0">
+        <v>6830914</v>
+      </c>
+    </row>
+    <row r="2123">
+      <c r="D2123" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2123" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2123" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2123" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2123" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2123" s="0">
+        <v>4282684</v>
+      </c>
+      <c r="J2123" s="0">
+        <v>4282684</v>
+      </c>
+    </row>
+    <row r="2124">
+      <c r="D2124" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2124" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2124" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2124" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2124" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2124" s="0">
+        <v>2071870</v>
+      </c>
+      <c r="J2124" s="0">
+        <v>2486244.0000000005</v>
+      </c>
+    </row>
+    <row r="2125">
+      <c r="D2125" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2125" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2125" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2125" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2125" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2125" s="0">
+        <v>2880357</v>
+      </c>
+      <c r="J2125" s="0">
+        <v>2880357</v>
+      </c>
+    </row>
+    <row r="2126">
+      <c r="D2126" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2126" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2126" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2126" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2126" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2126" s="0">
+        <v>9193244</v>
+      </c>
+      <c r="J2126" s="0">
+        <v>9193244</v>
+      </c>
+    </row>
+    <row r="2127">
+      <c r="D2127" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2127" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2127" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2127" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2127" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2127" s="0">
+        <v>6244124</v>
+      </c>
+      <c r="J2127" s="0">
+        <v>6244124</v>
+      </c>
+    </row>
+    <row r="2128">
+      <c r="D2128" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2128" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2128" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2128" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2128" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2128" s="0">
+        <v>953203</v>
+      </c>
+      <c r="J2128" s="0">
+        <v>1143843.5999999999</v>
+      </c>
+    </row>
+    <row r="2129">
+      <c r="D2129" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2129" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2129" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2129" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2129" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2129" s="0">
+        <v>2490293</v>
+      </c>
+      <c r="J2129" s="0">
+        <v>2490293</v>
+      </c>
+    </row>
+    <row r="2130">
+      <c r="D2130" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2130" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2130" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2130" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2130" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2130" s="0">
+        <v>4010534</v>
+      </c>
+      <c r="J2130" s="0">
+        <v>4812640.800000001</v>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="D2131" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2131" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2131" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2131" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2131" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2131" s="0">
+        <v>6961734</v>
+      </c>
+      <c r="J2131" s="0">
+        <v>6961734</v>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="D2132" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2132" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2132" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2132" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2132" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2132" s="0">
+        <v>27778</v>
+      </c>
+      <c r="J2132" s="0">
+        <v>27778</v>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="D2133" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2133" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2133" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2133" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2133" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2133" s="0">
+        <v>2056191</v>
+      </c>
+      <c r="J2133" s="0">
+        <v>2056191</v>
+      </c>
+    </row>
+    <row r="2134">
+      <c r="D2134" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2134" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2134" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2134" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2134" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2134" s="0">
+        <v>3300722</v>
+      </c>
+      <c r="J2134" s="0">
+        <v>3960866.4000000004</v>
+      </c>
+    </row>
+    <row r="2135">
+      <c r="D2135" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2135" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2135" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2135" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2135" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2135" s="0">
+        <v>12146907</v>
+      </c>
+      <c r="J2135" s="0">
+        <v>14576288.4</v>
+      </c>
+    </row>
+    <row r="2136">
+      <c r="D2136" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2136" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2136" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2136" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2136" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2136" s="0">
+        <v>3588167</v>
+      </c>
+      <c r="J2136" s="0">
+        <v>3588167</v>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="D2137" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2137" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2137" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2137" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2137" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2137" s="0">
+        <v>4151296</v>
+      </c>
+      <c r="J2137" s="0">
+        <v>4151296</v>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="D2138" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2138" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2138" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2138" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2138" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2138" s="0">
+        <v>1749399</v>
+      </c>
+      <c r="J2138" s="0">
+        <v>1749399</v>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="D2139" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2139" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2139" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2139" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2139" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2139" s="0">
+        <v>46296</v>
+      </c>
+      <c r="J2139" s="0">
+        <v>46296</v>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="D2140" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2140" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2140" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2140" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2140" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2140" s="0">
+        <v>749056</v>
+      </c>
+      <c r="J2140" s="0">
+        <v>749056</v>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="D2141" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2141" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2141" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2141" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2141" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2141" s="0">
+        <v>4135742</v>
+      </c>
+      <c r="J2141" s="0">
+        <v>4135742</v>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="D2142" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2142" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2142" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2142" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2142" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2142" s="0">
+        <v>8031382</v>
+      </c>
+      <c r="J2142" s="0">
+        <v>8031382</v>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="D2143" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2143" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2143" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2143" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2143" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2143" s="0">
+        <v>1733457</v>
+      </c>
+      <c r="J2143" s="0">
+        <v>1733457</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="D2144" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2144" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2144" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2144" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2144" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2144" s="0">
+        <v>10185</v>
+      </c>
+      <c r="J2144" s="0">
+        <v>10185</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="D2145" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2145" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2145" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2145" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2145" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2145" s="0">
+        <v>11492891</v>
+      </c>
+      <c r="J2145" s="0">
+        <v>12895430.399999995</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="D2146" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2146" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2146" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2146" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2146" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2146" s="0">
+        <v>12881151</v>
+      </c>
+      <c r="J2146" s="0">
+        <v>12881151</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="D2147" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2147" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2147" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2147" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2147" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2147" s="0">
+        <v>5757688</v>
+      </c>
+      <c r="J2147" s="0">
+        <v>5757688</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="D2148" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2148" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2148" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2148" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2148" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2148" s="0">
+        <v>4583211</v>
+      </c>
+      <c r="J2148" s="0">
+        <v>4583211</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="D2149" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2149" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2149" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2149" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2149" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2149" s="0">
+        <v>1711427</v>
+      </c>
+      <c r="J2149" s="0">
+        <v>1711427</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="D2150" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2150" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2150" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2150" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2150" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2150" s="0">
+        <v>592035</v>
+      </c>
+      <c r="J2150" s="0">
+        <v>592035</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="D2151" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2151" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2151" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2151" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2151" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2151" s="0">
+        <v>2657142</v>
+      </c>
+      <c r="J2151" s="0">
+        <v>2657142</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="D2152" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2152" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2152" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2152" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2152" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2152" s="0">
+        <v>502704</v>
+      </c>
+      <c r="J2152" s="0">
+        <v>502704</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="D2153" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2153" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2153" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2153" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2153" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2153" s="0">
+        <v>261016</v>
+      </c>
+      <c r="J2153" s="0">
+        <v>261016</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="D2154" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2154" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2154" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2154" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2154" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2154" s="0">
+        <v>823053</v>
+      </c>
+      <c r="J2154" s="0">
+        <v>823053</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="D2155" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2155" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2155" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2155" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2155" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2155" s="0">
+        <v>6169514</v>
+      </c>
+      <c r="J2155" s="0">
+        <v>6889851.599999999</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="D2156" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2156" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2156" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2156" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2156" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2156" s="0">
+        <v>10864841</v>
+      </c>
+      <c r="J2156" s="0">
+        <v>10864841</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="D2157" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2157" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2157" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2157" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2157" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2157" s="0">
+        <v>1238386</v>
+      </c>
+      <c r="J2157" s="0">
+        <v>1238386</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="D2158" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2158" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2158" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2158" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2158" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2158" s="0">
+        <v>8908989</v>
+      </c>
+      <c r="J2158" s="0">
+        <v>8908989</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="D2159" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2159" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2159" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2159" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2159" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2159" s="0">
+        <v>73611</v>
+      </c>
+      <c r="J2159" s="0">
+        <v>73611</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="D2160" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2160" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2160" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2160" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2160" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2160" s="0">
+        <v>5576574</v>
+      </c>
+      <c r="J2160" s="0">
+        <v>5576574</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="D2161" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2161" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2161" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2161" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2161" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2161" s="0">
+        <v>11823706</v>
+      </c>
+      <c r="J2161" s="0">
+        <v>11823706</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="D2162" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2162" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2162" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2162" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2162" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2162" s="0">
+        <v>3668709</v>
+      </c>
+      <c r="J2162" s="0">
+        <v>3668709</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="D2163" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2163" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2163" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2163" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2163" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2163" s="0">
+        <v>3617196</v>
+      </c>
+      <c r="J2163" s="0">
+        <v>4340635.200000002</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="D2164" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2164" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2164" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2164" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2164" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2164" s="0">
+        <v>4040068</v>
+      </c>
+      <c r="J2164" s="0">
+        <v>4040068</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="D2165" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2165" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2165" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2165" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2165" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2165" s="0">
+        <v>5155130</v>
+      </c>
+      <c r="J2165" s="0">
+        <v>5155130</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="D2166" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2166" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2166" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2166" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2166" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2166" s="0">
+        <v>89815</v>
+      </c>
+      <c r="J2166" s="0">
+        <v>89815</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="D2167" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2167" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2167" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2167" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2167" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2167" s="0">
+        <v>6989538</v>
+      </c>
+      <c r="J2167" s="0">
+        <v>6989538</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="D2168" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2168" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2168" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2168" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2168" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2168" s="0">
+        <v>4003149</v>
+      </c>
+      <c r="J2168" s="0">
+        <v>4003149</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="D2169" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2169" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2169" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2169" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2169" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2169" s="0">
+        <v>11340624</v>
+      </c>
+      <c r="J2169" s="0">
+        <v>12822484.999999998</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="D2170" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2170" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2170" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2170" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2170" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2170" s="0">
+        <v>4334006</v>
+      </c>
+      <c r="J2170" s="0">
+        <v>4334006</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="D2171" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2171" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2171" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2171" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2171" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2171" s="0">
+        <v>2919628</v>
+      </c>
+      <c r="J2171" s="0">
+        <v>2919628</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="D2172" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2172" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2172" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2172" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2172" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2172" s="0">
+        <v>7424109</v>
+      </c>
+      <c r="J2172" s="0">
+        <v>7424109</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="D2173" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2173" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2173" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2173" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2173" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2173" s="0">
+        <v>15277</v>
+      </c>
+      <c r="J2173" s="0">
+        <v>15277</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="D2174" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2174" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2174" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2174" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2174" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2174" s="0">
+        <v>5600641</v>
+      </c>
+      <c r="J2174" s="0">
+        <v>5600641</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="D2175" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2175" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2175" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2175" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2175" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2175" s="0">
+        <v>7716834</v>
+      </c>
+      <c r="J2175" s="0">
+        <v>9260200.8</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="D2176" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2176" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2176" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2176" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2176" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2176" s="0">
+        <v>2783980</v>
+      </c>
+      <c r="J2176" s="0">
+        <v>2783980</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="D2177" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2177" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2177" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2177" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2177" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2177" s="0">
+        <v>2560045</v>
+      </c>
+      <c r="J2177" s="0">
+        <v>2890452</v>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="D2178" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2178" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2178" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2178" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2178" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2178" s="0">
+        <v>4076107</v>
+      </c>
+      <c r="J2178" s="0">
+        <v>4076107</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="D2179" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2179" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2179" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2179" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2179" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2179" s="0">
+        <v>793980</v>
+      </c>
+      <c r="J2179" s="0">
+        <v>793980</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="D2180" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2180" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2180" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2180" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2180" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2180" s="0">
+        <v>292777</v>
+      </c>
+      <c r="J2180" s="0">
+        <v>292777</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="D2181" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2181" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2181" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2181" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2181" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2181" s="0">
+        <v>4291357</v>
+      </c>
+      <c r="J2181" s="0">
+        <v>5149628.399999999</v>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="D2182" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2182" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2182" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2182" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2182" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2182" s="0">
+        <v>2122794</v>
+      </c>
+      <c r="J2182" s="0">
+        <v>2547352.8000000007</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="D2183" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2183" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2183" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2183" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2183" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2183" s="0">
+        <v>9775798</v>
+      </c>
+      <c r="J2183" s="0">
+        <v>11047607.599999998</v>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="D2184" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2184" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2184" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2184" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2184" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2184" s="0">
+        <v>11968621</v>
+      </c>
+      <c r="J2184" s="0">
+        <v>11968621</v>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="D2185" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2185" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2185" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2185" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2185" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2185" s="0">
+        <v>1432174</v>
+      </c>
+      <c r="J2185" s="0">
+        <v>1432174</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="D2186" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2186" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2186" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2186" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2186" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2186" s="0">
+        <v>2283748</v>
+      </c>
+      <c r="J2186" s="0">
+        <v>2283748</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="D2187" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2187" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2187" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2187" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2187" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2187" s="0">
+        <v>106019</v>
+      </c>
+      <c r="J2187" s="0">
+        <v>106019</v>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="D2188" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2188" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2188" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2188" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2188" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2188" s="0">
+        <v>4017173</v>
+      </c>
+      <c r="J2188" s="0">
+        <v>4017173</v>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="D2189" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2189" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2189" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2189" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2189" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2189" s="0">
+        <v>9560493</v>
+      </c>
+      <c r="J2189" s="0">
+        <v>11472591.599999998</v>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="D2190" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2190" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2190" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2190" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2190" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2190" s="0">
+        <v>8697013</v>
+      </c>
+      <c r="J2190" s="0">
+        <v>10436415.599999992</v>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="D2191" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2191" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2191" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2191" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2191" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2191" s="0">
+        <v>1257194</v>
+      </c>
+      <c r="J2191" s="0">
+        <v>1257194</v>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="D2192" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2192" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2192" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2192" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2192" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2192" s="0">
+        <v>971016</v>
+      </c>
+      <c r="J2192" s="0">
+        <v>971016</v>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="D2193" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2193" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2193" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2193" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2193" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2193" s="0">
+        <v>61574</v>
+      </c>
+      <c r="J2193" s="0">
+        <v>61574</v>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="D2194" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2194" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2194" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2194" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2194" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2194" s="0">
+        <v>2032382</v>
+      </c>
+      <c r="J2194" s="0">
+        <v>2032382</v>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="D2195" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2195" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2195" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2195" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2195" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2195" s="0">
+        <v>8462545</v>
+      </c>
+      <c r="J2195" s="0">
+        <v>9649232.2</v>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="D2196" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2196" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2196" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2196" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2196" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2196" s="0">
+        <v>3620742</v>
+      </c>
+      <c r="J2196" s="0">
+        <v>3620742</v>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="D2197" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2197" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2197" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2197" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2197" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2197" s="0">
+        <v>2424244</v>
+      </c>
+      <c r="J2197" s="0">
+        <v>2909092.8</v>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="D2198" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2198" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2198" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2198" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2198" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2198" s="0">
+        <v>782354</v>
+      </c>
+      <c r="J2198" s="0">
+        <v>782354</v>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="D2199" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2199" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2199" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2199" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2199" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2199" s="0">
+        <v>5973985</v>
+      </c>
+      <c r="J2199" s="0">
+        <v>5973985</v>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="D2200" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2200" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2200" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2200" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2200" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2200" s="0">
+        <v>22821026</v>
+      </c>
+      <c r="J2200" s="0">
+        <v>27385231.199999996</v>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="D2201" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2201" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2201" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2201" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2201" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2201" s="0">
+        <v>4061524</v>
+      </c>
+      <c r="J2201" s="0">
+        <v>4061524</v>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="D2202" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2202" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2202" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2202" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2202" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2202" s="0">
+        <v>3796664</v>
+      </c>
+      <c r="J2202" s="0">
+        <v>3796664</v>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="D2203" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2203" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2203" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2203" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2203" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2203" s="0">
+        <v>4238421</v>
+      </c>
+      <c r="J2203" s="0">
+        <v>4238421</v>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="D2204" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2204" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2204" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2204" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2204" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2204" s="0">
+        <v>4512960</v>
+      </c>
+      <c r="J2204" s="0">
+        <v>5415552.000000001</v>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="D2205" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2205" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2205" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2205" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2205" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2205" s="0">
+        <v>5754710</v>
+      </c>
+      <c r="J2205" s="0">
+        <v>5754710</v>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="D2206" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2206" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2206" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2206" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2206" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2206" s="0">
+        <v>6463563</v>
+      </c>
+      <c r="J2206" s="0">
+        <v>6463563</v>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="D2207" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2207" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2207" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2207" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2207" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2207" s="0">
+        <v>7238069</v>
+      </c>
+      <c r="J2207" s="0">
+        <v>7238069</v>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="D2208" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2208" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2208" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2208" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2208" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2208" s="0">
+        <v>1894164</v>
+      </c>
+      <c r="J2208" s="0">
+        <v>1894164</v>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="D2209" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2209" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2209" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2209" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2209" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2209" s="0">
+        <v>9034866</v>
+      </c>
+      <c r="J2209" s="0">
+        <v>10112412.2</v>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="D2210" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2210" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2210" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2210" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2210" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2210" s="0">
+        <v>1316593</v>
+      </c>
+      <c r="J2210" s="0">
+        <v>1316593</v>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="D2211" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2211" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2211" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2211" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2211" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2211" s="0">
+        <v>2669629</v>
+      </c>
+      <c r="J2211" s="0">
+        <v>2669629</v>
+      </c>
+    </row>
+    <row r="2212">
+      <c r="D2212" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2212" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2212" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2212" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2212" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2212" s="0">
+        <v>3200558</v>
+      </c>
+      <c r="J2212" s="0">
+        <v>3840669.6000000015</v>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="D2213" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2213" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2213" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2213" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2213" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2213" s="0">
+        <v>13440234</v>
+      </c>
+      <c r="J2213" s="0">
+        <v>13440234</v>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="D2214" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2214" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2214" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2214" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2214" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2214" s="0">
+        <v>2221342</v>
+      </c>
+      <c r="J2214" s="0">
+        <v>2665610.4000000013</v>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="D2215" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2215" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2215" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2215" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2215" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2215" s="0">
+        <v>48611</v>
+      </c>
+      <c r="J2215" s="0">
+        <v>48611</v>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="D2216" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2216" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2216" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2216" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2216" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2216" s="0">
+        <v>7024573</v>
+      </c>
+      <c r="J2216" s="0">
+        <v>7024573</v>
+      </c>
+    </row>
+    <row r="2217">
+      <c r="D2217" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2217" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2217" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2217" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2217" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2217" s="0">
+        <v>841899</v>
+      </c>
+      <c r="J2217" s="0">
+        <v>841899</v>
+      </c>
+    </row>
+    <row r="2218">
+      <c r="D2218" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2218" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2218" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2218" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2218" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2218" s="0">
+        <v>7196153</v>
+      </c>
+      <c r="J2218" s="0">
+        <v>8003290.999999999</v>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="D2219" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2219" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2219" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2219" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2219" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2219" s="0">
+        <v>5853057</v>
+      </c>
+      <c r="J2219" s="0">
+        <v>7023668.400000001</v>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="D2220" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2220" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2220" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2220" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2220" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2220" s="0">
+        <v>7099169</v>
+      </c>
+      <c r="J2220" s="0">
+        <v>7099169</v>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="D2221" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2221" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2221" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2221" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2221" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2221" s="0">
+        <v>51852</v>
+      </c>
+      <c r="J2221" s="0">
+        <v>51852</v>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="D2222" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2222" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2222" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2222" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2222" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2222" s="0">
+        <v>5783518</v>
+      </c>
+      <c r="J2222" s="0">
+        <v>5783518</v>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="D2223" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2223" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2223" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2223" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2223" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2223" s="0">
+        <v>630556</v>
+      </c>
+      <c r="J2223" s="0">
+        <v>630556</v>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="D2224" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2224" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2224" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2224" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2224" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2224" s="0">
+        <v>4916762</v>
+      </c>
+      <c r="J2224" s="0">
+        <v>4916762</v>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="D2225" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2225" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2225" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2225" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2225" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2225" s="0">
+        <v>6503291</v>
+      </c>
+      <c r="J2225" s="0">
+        <v>7251590.999999998</v>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="D2226" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2226" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2226" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2226" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2226" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2226" s="0">
+        <v>2763629</v>
+      </c>
+      <c r="J2226" s="0">
+        <v>2763629</v>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="D2227" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2227" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2227" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2227" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2227" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2227" s="0">
+        <v>2027840</v>
+      </c>
+      <c r="J2227" s="0">
+        <v>2433407.9999999995</v>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="D2228" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2228" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2228" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2228" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2228" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2228" s="0">
+        <v>5022274</v>
+      </c>
+      <c r="J2228" s="0">
+        <v>5022274</v>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="D2229" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2229" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2229" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2229" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2229" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2229" s="0">
+        <v>106018</v>
+      </c>
+      <c r="J2229" s="0">
+        <v>106018</v>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="D2230" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2230" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2230" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2230" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2230" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2230" s="0">
+        <v>3264955</v>
+      </c>
+      <c r="J2230" s="0">
+        <v>3917945.999999998</v>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="D2231" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2231" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2231" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2231" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2231" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2231" s="0">
+        <v>3154072</v>
+      </c>
+      <c r="J2231" s="0">
+        <v>3154072</v>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="D2232" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2232" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2232" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2232" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2232" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2232" s="0">
+        <v>812684</v>
+      </c>
+      <c r="J2232" s="0">
+        <v>975220.7999999999</v>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="D2233" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2233" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2233" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2233" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2233" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2233" s="0">
+        <v>3281445</v>
+      </c>
+      <c r="J2233" s="0">
+        <v>3672101.599999999</v>
+      </c>
+    </row>
+    <row r="2234">
+      <c r="D2234" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2234" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2234" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2234" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2234" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2234" s="0">
+        <v>5938028</v>
+      </c>
+      <c r="J2234" s="0">
+        <v>5938028</v>
+      </c>
+    </row>
+    <row r="2235">
+      <c r="D2235" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2235" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2235" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2235" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2235" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2235" s="0">
+        <v>2608803</v>
+      </c>
+      <c r="J2235" s="0">
+        <v>3130563.6000000006</v>
+      </c>
+    </row>
+    <row r="2236">
+      <c r="D2236" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2236" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2236" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2236" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2236" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2236" s="0">
+        <v>51852</v>
+      </c>
+      <c r="J2236" s="0">
+        <v>51852</v>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="D2237" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2237" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2237" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2237" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2237" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2237" s="0">
+        <v>13694018</v>
+      </c>
+      <c r="J2237" s="0">
+        <v>16432821.599999998</v>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="D2238" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2238" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2238" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2238" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2238" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2238" s="0">
+        <v>5510316</v>
+      </c>
+      <c r="J2238" s="0">
+        <v>5510316</v>
+      </c>
+    </row>
+    <row r="2239">
+      <c r="D2239" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2239" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2239" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2239" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2239" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2239" s="0">
+        <v>4066020</v>
+      </c>
+      <c r="J2239" s="0">
+        <v>4066020</v>
+      </c>
+    </row>
+    <row r="2240">
+      <c r="D2240" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2240" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2240" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2240" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2240" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2240" s="0">
+        <v>2372222</v>
+      </c>
+      <c r="J2240" s="0">
+        <v>2846666.400000001</v>
+      </c>
+    </row>
+    <row r="2241">
+      <c r="D2241" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2241" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2241" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2241" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2241" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2241" s="0">
+        <v>6514864</v>
+      </c>
+      <c r="J2241" s="0">
+        <v>6514864</v>
+      </c>
+    </row>
+    <row r="2242">
+      <c r="D2242" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2242" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2242" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2242" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2242" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2242" s="0">
+        <v>10514934</v>
+      </c>
+      <c r="J2242" s="0">
+        <v>12617920.799999997</v>
+      </c>
+    </row>
+    <row r="2243">
+      <c r="D2243" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2243" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2243" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2243" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2243" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2243" s="0">
+        <v>1323889</v>
+      </c>
+      <c r="J2243" s="0">
+        <v>1323889</v>
+      </c>
+    </row>
+    <row r="2244">
+      <c r="D2244" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2244" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2244" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2244" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2244" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2244" s="0">
+        <v>5166238</v>
+      </c>
+      <c r="J2244" s="0">
+        <v>6199485.600000001</v>
+      </c>
+    </row>
+    <row r="2245">
+      <c r="D2245" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2245" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2245" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2245" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2245" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2245" s="0">
+        <v>2681243</v>
+      </c>
+      <c r="J2245" s="0">
+        <v>2681243</v>
+      </c>
+    </row>
+    <row r="2246">
+      <c r="D2246" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2246" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2246" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2246" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2246" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2246" s="0">
+        <v>9355790</v>
+      </c>
+      <c r="J2246" s="0">
+        <v>11226947.999999996</v>
+      </c>
+    </row>
+    <row r="2247">
+      <c r="D2247" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2247" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2247" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2247" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2247" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2247" s="0">
+        <v>4798331</v>
+      </c>
+      <c r="J2247" s="0">
+        <v>5757997.199999999</v>
+      </c>
+    </row>
+    <row r="2248">
+      <c r="D2248" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2248" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2248" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2248" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2248" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2248" s="0">
+        <v>5634540</v>
+      </c>
+      <c r="J2248" s="0">
+        <v>5634540</v>
+      </c>
+    </row>
+    <row r="2249">
+      <c r="D2249" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2249" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2249" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2249" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2249" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2249" s="0">
+        <v>9841209</v>
+      </c>
+      <c r="J2249" s="0">
+        <v>9841209</v>
+      </c>
+    </row>
+    <row r="2250">
+      <c r="D2250" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2250" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2250" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2250" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2250" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2250" s="0">
+        <v>67130</v>
+      </c>
+      <c r="J2250" s="0">
+        <v>67130</v>
+      </c>
+    </row>
+    <row r="2251">
+      <c r="D2251" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2251" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2251" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2251" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2251" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2251" s="0">
+        <v>9117543</v>
+      </c>
+      <c r="J2251" s="0">
+        <v>10941051.6</v>
+      </c>
+    </row>
+    <row r="2252">
+      <c r="D2252" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2252" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2252" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2252" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2252" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2252" s="0">
+        <v>12677166</v>
+      </c>
+      <c r="J2252" s="0">
+        <v>15212599.200000003</v>
+      </c>
+    </row>
+    <row r="2253">
+      <c r="D2253" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2253" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2253" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2253" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2253" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2253" s="0">
+        <v>7416019</v>
+      </c>
+      <c r="J2253" s="0">
+        <v>7416019</v>
+      </c>
+    </row>
+    <row r="2254">
+      <c r="D2254" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2254" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2254" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2254" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2254" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2254" s="0">
+        <v>3233291</v>
+      </c>
+      <c r="J2254" s="0">
+        <v>3233291</v>
+      </c>
+    </row>
+    <row r="2255">
+      <c r="D2255" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2255" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2255" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2255" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2255" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2255" s="0">
+        <v>18763629</v>
+      </c>
+      <c r="J2255" s="0">
+        <v>22516354.799999997</v>
+      </c>
+    </row>
+    <row r="2256">
+      <c r="D2256" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2256" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2256" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2256" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2256" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2256" s="0">
+        <v>1838424</v>
+      </c>
+      <c r="J2256" s="0">
+        <v>1838424</v>
+      </c>
+    </row>
+    <row r="2257">
+      <c r="D2257" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2257" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2257" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2257" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2257" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2257" s="0">
+        <v>18659300</v>
+      </c>
+      <c r="J2257" s="0">
+        <v>22391160.000000004</v>
+      </c>
+    </row>
+    <row r="2258">
+      <c r="D2258" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2258" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2258" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2258" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2258" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2258" s="0">
+        <v>20833</v>
+      </c>
+      <c r="J2258" s="0">
+        <v>20833</v>
+      </c>
+    </row>
+    <row r="2259">
+      <c r="D2259" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2259" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2259" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2259" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2259" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2259" s="0">
+        <v>2281904</v>
+      </c>
+      <c r="J2259" s="0">
+        <v>2281904</v>
+      </c>
+    </row>
+    <row r="2260">
+      <c r="D2260" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2260" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2260" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2260" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2260" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2260" s="0">
+        <v>15088248</v>
+      </c>
+      <c r="J2260" s="0">
+        <v>18105897.6</v>
+      </c>
+    </row>
+    <row r="2261">
+      <c r="D2261" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2261" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2261" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2261" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2261" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2261" s="0">
+        <v>3527456</v>
+      </c>
+      <c r="J2261" s="0">
+        <v>3527456</v>
+      </c>
+    </row>
+    <row r="2262">
+      <c r="D2262" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2262" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2262" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2262" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2262" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2262" s="0">
+        <v>5575833</v>
+      </c>
+      <c r="J2262" s="0">
+        <v>5575833</v>
+      </c>
+    </row>
+    <row r="2263">
+      <c r="D2263" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2263" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2263" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2263" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2263" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2263" s="0">
+        <v>10833124</v>
+      </c>
+      <c r="J2263" s="0">
+        <v>12241167.400000002</v>
+      </c>
+    </row>
+    <row r="2264">
+      <c r="D2264" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2264" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2264" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2264" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2264" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2264" s="0">
+        <v>5491338</v>
+      </c>
+      <c r="J2264" s="0">
+        <v>5491338</v>
+      </c>
+    </row>
+    <row r="2265">
+      <c r="D2265" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2265" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2265" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2265" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2265" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2265" s="0">
+        <v>1348863</v>
+      </c>
+      <c r="J2265" s="0">
+        <v>1348863</v>
+      </c>
+    </row>
+    <row r="2266">
+      <c r="D2266" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2266" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2266" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2266" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2266" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2266" s="0">
+        <v>6791668</v>
+      </c>
+      <c r="J2266" s="0">
+        <v>6791668</v>
+      </c>
+    </row>
+    <row r="2267">
+      <c r="D2267" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2267" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2267" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2267" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2267" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2267" s="0">
+        <v>2469166</v>
+      </c>
+      <c r="J2267" s="0">
+        <v>2469166</v>
+      </c>
+    </row>
+    <row r="2268">
+      <c r="D2268" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2268" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2268" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2268" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2268" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2268" s="0">
+        <v>1355092</v>
+      </c>
+      <c r="J2268" s="0">
+        <v>1355092</v>
+      </c>
+    </row>
+    <row r="2269">
+      <c r="D2269" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2269" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2269" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2269" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2269" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2269" s="0">
+        <v>853750</v>
+      </c>
+      <c r="J2269" s="0">
+        <v>853750</v>
+      </c>
+    </row>
+    <row r="2270">
+      <c r="D2270" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2270" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2270" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2270" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2270" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2270" s="0">
+        <v>8826066</v>
+      </c>
+      <c r="J2270" s="0">
+        <v>8826066</v>
+      </c>
+    </row>
+    <row r="2271">
+      <c r="D2271" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2271" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2271" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2271" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2271" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2271" s="0">
+        <v>15114127</v>
+      </c>
+      <c r="J2271" s="0">
+        <v>18136952.4</v>
+      </c>
+    </row>
+    <row r="2272">
+      <c r="D2272" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2272" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2272" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2272" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2272" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2272" s="0">
+        <v>12935864</v>
+      </c>
+      <c r="J2272" s="0">
+        <v>15523036.799999991</v>
+      </c>
+    </row>
+    <row r="2273">
+      <c r="D2273" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2273" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2273" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2273" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2273" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2273" s="0">
+        <v>5439493</v>
+      </c>
+      <c r="J2273" s="0">
+        <v>5439493</v>
+      </c>
+    </row>
+    <row r="2274">
+      <c r="D2274" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2274" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2274" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2274" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2274" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2274" s="0">
+        <v>4907454</v>
+      </c>
+      <c r="J2274" s="0">
+        <v>4907454</v>
+      </c>
+    </row>
+    <row r="2275">
+      <c r="D2275" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2275" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2275" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2275" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2275" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2275" s="0">
+        <v>1234380</v>
+      </c>
+      <c r="J2275" s="0">
+        <v>1234380</v>
+      </c>
+    </row>
+    <row r="2276">
+      <c r="D2276" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2276" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2276" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2276" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2276" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2276" s="0">
+        <v>11763038</v>
+      </c>
+      <c r="J2276" s="0">
+        <v>14115645.6</v>
+      </c>
+    </row>
+    <row r="2277">
+      <c r="D2277" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2277" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2277" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2277" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2277" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2277" s="0">
+        <v>5275901</v>
+      </c>
+      <c r="J2277" s="0">
+        <v>5275901</v>
+      </c>
+    </row>
+    <row r="2278">
+      <c r="D2278" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2278" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2278" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2278" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2278" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2278" s="0">
+        <v>2513056</v>
+      </c>
+      <c r="J2278" s="0">
+        <v>2513056</v>
+      </c>
+    </row>
+    <row r="2279">
+      <c r="D2279" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2279" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2279" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2279" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2279" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2279" s="0">
+        <v>1286943</v>
+      </c>
+      <c r="J2279" s="0">
+        <v>1286943</v>
+      </c>
+    </row>
+    <row r="2280">
+      <c r="D2280" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2280" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2280" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2280" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2280" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2280" s="0">
+        <v>2867547</v>
+      </c>
+      <c r="J2280" s="0">
+        <v>2867547</v>
+      </c>
+    </row>
+    <row r="2281">
+      <c r="D2281" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2281" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2281" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2281" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2281" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2281" s="0">
+        <v>17894453</v>
+      </c>
+      <c r="J2281" s="0">
+        <v>21473343.6</v>
+      </c>
+    </row>
+    <row r="2282">
+      <c r="D2282" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2282" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2282" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2282" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2282" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2282" s="0">
+        <v>8349851</v>
+      </c>
+      <c r="J2282" s="0">
+        <v>10019821.200000001</v>
+      </c>
+    </row>
+    <row r="2283">
+      <c r="D2283" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2283" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2283" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2283" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2283" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2283" s="0">
+        <v>3990962</v>
+      </c>
+      <c r="J2283" s="0">
+        <v>4789154.399999999</v>
+      </c>
+    </row>
+    <row r="2284">
+      <c r="D2284" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2284" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2284" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2284" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2284" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2284" s="0">
+        <v>11355749</v>
+      </c>
+      <c r="J2284" s="0">
+        <v>13626898.8</v>
+      </c>
+    </row>
+    <row r="2285">
+      <c r="D2285" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2285" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2285" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2285" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2285" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2285" s="0">
+        <v>6024261</v>
+      </c>
+      <c r="J2285" s="0">
+        <v>6024261</v>
+      </c>
+    </row>
+    <row r="2286">
+      <c r="D2286" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2286" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2286" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2286" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2286" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2286" s="0">
+        <v>738148</v>
+      </c>
+      <c r="J2286" s="0">
+        <v>738148</v>
+      </c>
+    </row>
+    <row r="2287">
+      <c r="D2287" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2287" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2287" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2287" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2287" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2287" s="0">
+        <v>6390487</v>
+      </c>
+      <c r="J2287" s="0">
+        <v>7195118.199999999</v>
+      </c>
+    </row>
+    <row r="2288">
+      <c r="D2288" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2288" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2288" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2288" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2288" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2288" s="0">
+        <v>3259912</v>
+      </c>
+      <c r="J2288" s="0">
+        <v>3259912</v>
+      </c>
+    </row>
+    <row r="2289">
+      <c r="D2289" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2289" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2289" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2289" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2289" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2289" s="0">
+        <v>3687421</v>
+      </c>
+      <c r="J2289" s="0">
+        <v>4424905.199999999</v>
+      </c>
+    </row>
+    <row r="2290">
+      <c r="D2290" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2290" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2290" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2290" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2290" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2290" s="0">
+        <v>2345003</v>
+      </c>
+      <c r="J2290" s="0">
+        <v>2345003</v>
+      </c>
+    </row>
+    <row r="2291">
+      <c r="D2291" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2291" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2291" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2291" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2291" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2291" s="0">
+        <v>4487704</v>
+      </c>
+      <c r="J2291" s="0">
+        <v>4487704</v>
+      </c>
+    </row>
+    <row r="2292">
+      <c r="D2292" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2292" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2292" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2292" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2292" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2292" s="0">
+        <v>639618</v>
+      </c>
+      <c r="J2292" s="0">
+        <v>639618</v>
+      </c>
+    </row>
+    <row r="2293">
+      <c r="D2293" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2293" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2293" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2293" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2293" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2293" s="0">
+        <v>55556</v>
+      </c>
+      <c r="J2293" s="0">
+        <v>55556</v>
+      </c>
+    </row>
+    <row r="2294">
+      <c r="D2294" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2294" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2294" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2294" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2294" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2294" s="0">
+        <v>5917459</v>
+      </c>
+      <c r="J2294" s="0">
+        <v>7100950.8</v>
+      </c>
+    </row>
+    <row r="2295">
+      <c r="D2295" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2295" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2295" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2295" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2295" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2295" s="0">
+        <v>1416125</v>
+      </c>
+      <c r="J2295" s="0">
+        <v>1699349.9999999998</v>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="D2296" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2296" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2296" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2296" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2296" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2296" s="0">
+        <v>5735685</v>
+      </c>
+      <c r="J2296" s="0">
+        <v>6480888.199999999</v>
+      </c>
+    </row>
+    <row r="2297">
+      <c r="D2297" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2297" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2297" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2297" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2297" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2297" s="0">
+        <v>1856326</v>
+      </c>
+      <c r="J2297" s="0">
+        <v>1856326</v>
+      </c>
+    </row>
+    <row r="2298">
+      <c r="D2298" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2298" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2298" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2298" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2298" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2298" s="0">
+        <v>4529448</v>
+      </c>
+      <c r="J2298" s="0">
+        <v>4529448</v>
+      </c>
+    </row>
+    <row r="2299">
+      <c r="D2299" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2299" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2299" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2299" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2299" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2299" s="0">
+        <v>7355533</v>
+      </c>
+      <c r="J2299" s="0">
+        <v>8196235.599999999</v>
+      </c>
+    </row>
+    <row r="2300">
+      <c r="D2300" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2300" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2300" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2300" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2300" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2300" s="0">
+        <v>6132127</v>
+      </c>
+      <c r="J2300" s="0">
+        <v>6132127</v>
+      </c>
+    </row>
+    <row r="2301">
+      <c r="D2301" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2301" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2301" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2301" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2301" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2301" s="0">
+        <v>1376983</v>
+      </c>
+      <c r="J2301" s="0">
+        <v>1376983</v>
+      </c>
+    </row>
+    <row r="2302">
+      <c r="D2302" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2302" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2302" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2302" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2302" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2302" s="0">
+        <v>4805932</v>
+      </c>
+      <c r="J2302" s="0">
+        <v>4805932</v>
+      </c>
+    </row>
+    <row r="2303">
+      <c r="D2303" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2303" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2303" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2303" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2303" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2303" s="0">
+        <v>1783002</v>
+      </c>
+      <c r="J2303" s="0">
+        <v>1783002</v>
+      </c>
+    </row>
+    <row r="2304">
+      <c r="D2304" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2304" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2304" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2304" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2304" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2304" s="0">
+        <v>3619695</v>
+      </c>
+      <c r="J2304" s="0">
+        <v>4343634.000000001</v>
+      </c>
+    </row>
+    <row r="2305">
+      <c r="D2305" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2305" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2305" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2305" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2305" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2305" s="0">
+        <v>1837355</v>
+      </c>
+      <c r="J2305" s="0">
+        <v>1837355</v>
+      </c>
+    </row>
+    <row r="2306">
+      <c r="D2306" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2306" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2306" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2306" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2306" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2306" s="0">
+        <v>5445297</v>
+      </c>
+      <c r="J2306" s="0">
+        <v>5445297</v>
+      </c>
+    </row>
+    <row r="2307">
+      <c r="D2307" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2307" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2307" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2307" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2307" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2307" s="0">
+        <v>55093</v>
+      </c>
+      <c r="J2307" s="0">
+        <v>55093</v>
+      </c>
+    </row>
+    <row r="2308">
+      <c r="D2308" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2308" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2308" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2308" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2308" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2308" s="0">
+        <v>6610127</v>
+      </c>
+      <c r="J2308" s="0">
+        <v>6610127</v>
+      </c>
+    </row>
+    <row r="2309">
+      <c r="D2309" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2309" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2309" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2309" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2309" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2309" s="0">
+        <v>3112390</v>
+      </c>
+      <c r="J2309" s="0">
+        <v>3496775.2</v>
+      </c>
+    </row>
+    <row r="2310">
+      <c r="D2310" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2310" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2310" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2310" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2310" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2310" s="0">
+        <v>5091063</v>
+      </c>
+      <c r="J2310" s="0">
+        <v>5091063</v>
+      </c>
+    </row>
+    <row r="2311">
+      <c r="D2311" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2311" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2311" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2311" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2311" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2311" s="0">
+        <v>687162</v>
+      </c>
+      <c r="J2311" s="0">
+        <v>687162</v>
+      </c>
+    </row>
+    <row r="2312">
+      <c r="D2312" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2312" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2312" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2312" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2312" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2312" s="0">
+        <v>10431691</v>
+      </c>
+      <c r="J2312" s="0">
+        <v>12518029.200000001</v>
+      </c>
+    </row>
+    <row r="2313">
+      <c r="D2313" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2313" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2313" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2313" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2313" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2313" s="0">
+        <v>1533609</v>
+      </c>
+      <c r="J2313" s="0">
+        <v>1533609</v>
+      </c>
+    </row>
+    <row r="2314">
+      <c r="D2314" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2314" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2314" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2314" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2314" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2314" s="0">
+        <v>2892952</v>
+      </c>
+      <c r="J2314" s="0">
+        <v>2892952</v>
+      </c>
+    </row>
+    <row r="2315">
+      <c r="D2315" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2315" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2315" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2315" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2315" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2315" s="0">
+        <v>1637038</v>
+      </c>
+      <c r="J2315" s="0">
+        <v>1637038</v>
+      </c>
+    </row>
+    <row r="2316">
+      <c r="D2316" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2316" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2316" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2316" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2316" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2316" s="0">
+        <v>4898775</v>
+      </c>
+      <c r="J2316" s="0">
+        <v>5540802.799999997</v>
+      </c>
+    </row>
+    <row r="2317">
+      <c r="D2317" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2317" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2317" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2317" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2317" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2317" s="0">
+        <v>808797</v>
+      </c>
+      <c r="J2317" s="0">
+        <v>808797</v>
+      </c>
+    </row>
+    <row r="2318">
+      <c r="D2318" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2318" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2318" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2318" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2318" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2318" s="0">
+        <v>6672926</v>
+      </c>
+      <c r="J2318" s="0">
+        <v>6672926</v>
+      </c>
+    </row>
+    <row r="2319">
+      <c r="D2319" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2319" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2319" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2319" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2319" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2319" s="0">
+        <v>4726166</v>
+      </c>
+      <c r="J2319" s="0">
+        <v>5671399.199999999</v>
+      </c>
+    </row>
+    <row r="2320">
+      <c r="D2320" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2320" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2320" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2320" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2320" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2320" s="0">
+        <v>6025013</v>
+      </c>
+      <c r="J2320" s="0">
+        <v>6025013</v>
+      </c>
+    </row>
+    <row r="2321">
+      <c r="D2321" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2321" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2321" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2321" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2321" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2321" s="0">
+        <v>5891625</v>
+      </c>
+      <c r="J2321" s="0">
+        <v>5891625</v>
+      </c>
+    </row>
+    <row r="2322">
+      <c r="D2322" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2322" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2322" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2322" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2322" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2322" s="0">
+        <v>2813417</v>
+      </c>
+      <c r="J2322" s="0">
+        <v>3376100.400000001</v>
+      </c>
+    </row>
+    <row r="2323">
+      <c r="D2323" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2323" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2323" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2323" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2323" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2323" s="0">
+        <v>2725716</v>
+      </c>
+      <c r="J2323" s="0">
+        <v>2725716</v>
+      </c>
+    </row>
+    <row r="2324">
+      <c r="D2324" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2324" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2324" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2324" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2324" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2324" s="0">
+        <v>3987950</v>
+      </c>
+      <c r="J2324" s="0">
+        <v>3987950</v>
+      </c>
+    </row>
+    <row r="2325">
+      <c r="D2325" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2325" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2325" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2325" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2325" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2325" s="0">
+        <v>6392361</v>
+      </c>
+      <c r="J2325" s="0">
+        <v>7670833.199999999</v>
+      </c>
+    </row>
+    <row r="2326">
+      <c r="D2326" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2326" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2326" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2326" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2326" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2326" s="0">
+        <v>3015553</v>
+      </c>
+      <c r="J2326" s="0">
+        <v>3015553</v>
+      </c>
+    </row>
+    <row r="2327">
+      <c r="D2327" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2327" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2327" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2327" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2327" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2327" s="0">
+        <v>10447683</v>
+      </c>
+      <c r="J2327" s="0">
+        <v>12537219.600000003</v>
+      </c>
+    </row>
+    <row r="2328">
+      <c r="D2328" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2328" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2328" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2328" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2328" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2328" s="0">
+        <v>5494092</v>
+      </c>
+      <c r="J2328" s="0">
+        <v>5494092</v>
+      </c>
+    </row>
+    <row r="2329">
+      <c r="D2329" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2329" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2329" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2329" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2329" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2329" s="0">
+        <v>15124660</v>
+      </c>
+      <c r="J2329" s="0">
+        <v>18149591.999999996</v>
+      </c>
+    </row>
+    <row r="2330">
+      <c r="D2330" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2330" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2330" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2330" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2330" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2330" s="0">
+        <v>3223438</v>
+      </c>
+      <c r="J2330" s="0">
+        <v>3223438</v>
+      </c>
+    </row>
+    <row r="2331">
+      <c r="D2331" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2331" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2331" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2331" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2331" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2331" s="0">
+        <v>1194165</v>
+      </c>
+      <c r="J2331" s="0">
+        <v>1194165</v>
+      </c>
+    </row>
+    <row r="2332">
+      <c r="D2332" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2332" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2332" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2332" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2332" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2332" s="0">
+        <v>7275786</v>
+      </c>
+      <c r="J2332" s="0">
+        <v>7275786</v>
+      </c>
+    </row>
+    <row r="2333">
+      <c r="D2333" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2333" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2333" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2333" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2333" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2333" s="0">
+        <v>5397596</v>
+      </c>
+      <c r="J2333" s="0">
+        <v>5397596</v>
+      </c>
+    </row>
+    <row r="2334">
+      <c r="D2334" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2334" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2334" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2334" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2334" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2334" s="0">
+        <v>3734528</v>
+      </c>
+      <c r="J2334" s="0">
+        <v>4481433.6</v>
+      </c>
+    </row>
+    <row r="2335">
+      <c r="D2335" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2335" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2335" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2335" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2335" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2335" s="0">
+        <v>11896463</v>
+      </c>
+      <c r="J2335" s="0">
+        <v>11896463</v>
+      </c>
+    </row>
+    <row r="2336">
+      <c r="D2336" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2336" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2336" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2336" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2336" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2336" s="0">
+        <v>3554464</v>
+      </c>
+      <c r="J2336" s="0">
+        <v>3554464</v>
+      </c>
+    </row>
+    <row r="2337">
+      <c r="D2337" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2337" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2337" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2337" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2337" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2337" s="0">
+        <v>5350106</v>
+      </c>
+      <c r="J2337" s="0">
+        <v>6420127.200000001</v>
+      </c>
+    </row>
+    <row r="2338">
+      <c r="D2338" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2338" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2338" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2338" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2338" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2338" s="0">
+        <v>3730649</v>
+      </c>
+      <c r="J2338" s="0">
+        <v>3730649</v>
+      </c>
+    </row>
+    <row r="2339">
+      <c r="D2339" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2339" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2339" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2339" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2339" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2339" s="0">
+        <v>2876056</v>
+      </c>
+      <c r="J2339" s="0">
+        <v>2876056</v>
+      </c>
+    </row>
+    <row r="2340">
+      <c r="D2340" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2340" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2340" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2340" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2340" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2340" s="0">
+        <v>1549613</v>
+      </c>
+      <c r="J2340" s="0">
+        <v>1549613</v>
+      </c>
+    </row>
+    <row r="2341">
+      <c r="D2341" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2341" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2341" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2341" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2341" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2341" s="0">
+        <v>7180178</v>
+      </c>
+      <c r="J2341" s="0">
+        <v>7180178</v>
+      </c>
+    </row>
+    <row r="2342">
+      <c r="D2342" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2342" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2342" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2342" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2342" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2342" s="0">
+        <v>6746855</v>
+      </c>
+      <c r="J2342" s="0">
+        <v>6746855</v>
+      </c>
+    </row>
+    <row r="2343">
+      <c r="D2343" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2343" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2343" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2343" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2343" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2343" s="0">
+        <v>23075981</v>
+      </c>
+      <c r="J2343" s="0">
+        <v>27691177.2</v>
+      </c>
+    </row>
+    <row r="2344">
+      <c r="D2344" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2344" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2344" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2344" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2344" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2344" s="0">
+        <v>637023</v>
+      </c>
+      <c r="J2344" s="0">
+        <v>637023</v>
+      </c>
+    </row>
+    <row r="2345">
+      <c r="D2345" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2345" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2345" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2345" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2345" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2345" s="0">
+        <v>3865837</v>
+      </c>
+      <c r="J2345" s="0">
+        <v>3865837</v>
+      </c>
+    </row>
+    <row r="2346">
+      <c r="D2346" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2346" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2346" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2346" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2346" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2346" s="0">
+        <v>3932868</v>
+      </c>
+      <c r="J2346" s="0">
+        <v>3932868</v>
+      </c>
+    </row>
+    <row r="2347">
+      <c r="D2347" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2347" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2347" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2347" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2347" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2347" s="0">
+        <v>5546176</v>
+      </c>
+      <c r="J2347" s="0">
+        <v>6655411.199999999</v>
+      </c>
+    </row>
+    <row r="2348">
+      <c r="D2348" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2348" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2348" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2348" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2348" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2348" s="0">
+        <v>5006658</v>
+      </c>
+      <c r="J2348" s="0">
+        <v>5621889.599999998</v>
+      </c>
+    </row>
+    <row r="2349">
+      <c r="D2349" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2349" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2349" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2349" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2349" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2349" s="0">
+        <v>6944</v>
+      </c>
+      <c r="J2349" s="0">
+        <v>6944</v>
+      </c>
+    </row>
+    <row r="2350">
+      <c r="D2350" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2350" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2350" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2350" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2350" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2350" s="0">
+        <v>3261208</v>
+      </c>
+      <c r="J2350" s="0">
+        <v>3261208</v>
+      </c>
+    </row>
+    <row r="2351">
+      <c r="D2351" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2351" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2351" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2351" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2351" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2351" s="0">
+        <v>1838424</v>
+      </c>
+      <c r="J2351" s="0">
+        <v>1838424</v>
+      </c>
+    </row>
+    <row r="2352">
+      <c r="D2352" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2352" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2352" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2352" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2352" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2352" s="0">
+        <v>8754002</v>
+      </c>
+      <c r="J2352" s="0">
+        <v>8754002</v>
+      </c>
+    </row>
+    <row r="2353">
+      <c r="D2353" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2353" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2353" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2353" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2353" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2353" s="0">
+        <v>5376483</v>
+      </c>
+      <c r="J2353" s="0">
+        <v>5376483</v>
+      </c>
+    </row>
+    <row r="2354">
+      <c r="D2354" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2354" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2354" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2354" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2354" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2354" s="0">
+        <v>3940277</v>
+      </c>
+      <c r="J2354" s="0">
+        <v>3940277</v>
+      </c>
+    </row>
+    <row r="2355">
+      <c r="D2355" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2355" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2355" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2355" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2355" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2355" s="0">
+        <v>673238</v>
+      </c>
+      <c r="J2355" s="0">
+        <v>673238</v>
+      </c>
+    </row>
+    <row r="2356">
+      <c r="D2356" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2356" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2356" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2356" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2356" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2356" s="0">
+        <v>8115289</v>
+      </c>
+      <c r="J2356" s="0">
+        <v>9738346.799999999</v>
+      </c>
+    </row>
+    <row r="2357">
+      <c r="D2357" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2357" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2357" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2357" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2357" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2357" s="0">
+        <v>3692717</v>
+      </c>
+      <c r="J2357" s="0">
+        <v>3692717</v>
+      </c>
+    </row>
+    <row r="2358">
+      <c r="D2358" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2358" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2358" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2358" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2358" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2358" s="0">
+        <v>3640742</v>
+      </c>
+      <c r="J2358" s="0">
+        <v>4368890.4</v>
+      </c>
+    </row>
+    <row r="2359">
+      <c r="D2359" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2359" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2359" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2359" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2359" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2359" s="0">
+        <v>1371017</v>
+      </c>
+      <c r="J2359" s="0">
+        <v>1371017</v>
+      </c>
+    </row>
+    <row r="2360">
+      <c r="D2360" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E2360" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2360" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2360" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2360" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2360" s="0">
+        <v>2880000</v>
+      </c>
+      <c r="J2360" s="0">
+        <v>2880000</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
